--- a/seed_data/incidentsSeed.xlsx
+++ b/seed_data/incidentsSeed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b8ec6da2946e4b6/Documents/School/Year Five/Final Year Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bushie\Desktop\Projects\ogc-features-server\seed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{3194339E-305B-4E0A-BD53-982A7F2B5B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EABB9D6A-484E-47D1-9A04-266A8DC6B29E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C5ADF8-A04F-43A2-970D-27BF662B4FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="0" windowWidth="12000" windowHeight="12900" xr2:uid="{2DBD6829-CA4F-4FD5-BDB6-CCB6CE48ED86}"/>
+    <workbookView xWindow="12000" yWindow="6450" windowWidth="12000" windowHeight="6450" xr2:uid="{2DBD6829-CA4F-4FD5-BDB6-CCB6CE48ED86}"/>
   </bookViews>
   <sheets>
     <sheet name="incidents" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>incidentid</t>
   </si>
@@ -56,9 +56,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>success</t>
-  </si>
-  <si>
     <t>locale</t>
   </si>
   <si>
@@ -135,6 +132,150 @@
   </si>
   <si>
     <t>Nairobi</t>
+  </si>
+  <si>
+    <t>Attack on residential houses</t>
+  </si>
+  <si>
+    <t>Al Khamseen Street</t>
+  </si>
+  <si>
+    <t>Tawhid Abad</t>
+  </si>
+  <si>
+    <t>Attack on ANA soldiers/hostages taken</t>
+  </si>
+  <si>
+    <t>engagement</t>
+  </si>
+  <si>
+    <t>Attack on Army post</t>
+  </si>
+  <si>
+    <t>Jalawla</t>
+  </si>
+  <si>
+    <t>Attack on Bangassou</t>
+  </si>
+  <si>
+    <t>Bangassou</t>
+  </si>
+  <si>
+    <t>Point(22.814778 4.746876)</t>
+  </si>
+  <si>
+    <t>Point(45.163568 34.271035)</t>
+  </si>
+  <si>
+    <t>Point(36.803818484236515 -1.269191352706191)</t>
+  </si>
+  <si>
+    <t>Point(43.074642 14.793804)</t>
+  </si>
+  <si>
+    <t>Point(68.41533 33.542623)</t>
+  </si>
+  <si>
+    <t>Attack on well</t>
+  </si>
+  <si>
+    <t>Bacasdweyn</t>
+  </si>
+  <si>
+    <t>Point(47.528297 7.19283)</t>
+  </si>
+  <si>
+    <t>State Capitol Riots</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Point(-77.014726 38.909934)</t>
+  </si>
+  <si>
+    <t>01/00/2021: Sometime between January 3, 2021 and January 9, 2021, assailants shot and injured a civilian in Creggan neighborhood, Londonderry, Northern Ireland, United Kingdom. No group claimed responsibility for the incident; however, sources attributed the attack to the Derry Brigade of the New Irish Republican Army.</t>
+  </si>
+  <si>
+    <t>Londonery</t>
+  </si>
+  <si>
+    <t>Point(-7.312044 55.011561)</t>
+  </si>
+  <si>
+    <t>01/14/2021: An explosive device detonated targeting the vehicle of security forces responding to a previous incident in Chashma-e-Shir area, Puli Khumri, Baghlan, Afghanistan. Four soldiers were killed and one other was wounded in the attack. This was one of two incidents targeting security forces in the area on this day. The Taliban claimed responsibility for the incident and stated that the security forces were targeted because they were harassing civilians.</t>
+  </si>
+  <si>
+    <t>Puli Khumri</t>
+  </si>
+  <si>
+    <t>Point(68.710329 35.947551)</t>
+  </si>
+  <si>
+    <t>01/12/2021: An explosive device targeting a liquor store detonated in along al-Nidhal street in Rusafa neighborhood, Baghdad, Iraq. One employee was killed in the blast. The storefront was also damaged. This was one of three related attacks targeting liquor stores on this date. No group claimed responsibility for the attack, but sources attributed the attack to Ahl al-Marouf</t>
+  </si>
+  <si>
+    <t>Rusafa</t>
+  </si>
+  <si>
+    <t>Point(44.371771 33.303567)</t>
+  </si>
+  <si>
+    <t>01/12/2021: An assailant armed with a screwdriver attacked Israeli Border Police personnel at a checkpoint in Qalandiyah, West Bank, West Bank and Gaza Strip. One officer and the assailant were injured in the ensuing clash. No group claimed responsibility for the incident; however, sources attributed the attack to Palestinian extremists.</t>
+  </si>
+  <si>
+    <t>Qalandiyah</t>
+  </si>
+  <si>
+    <t>=[conflictsSeed.xlsx]conflicts!$F$6</t>
+  </si>
+  <si>
+    <t>Point(35.208428 31.861471)</t>
+  </si>
+  <si>
+    <t>01/16/2021: Assailants opened fire on police officers in the 5th police district, Jalalabad, Nangarhar, Afghanistan. Two police officers were killed in the attack. The Khorasan Province of the Islamic State claimed responsibility for the incident.</t>
+  </si>
+  <si>
+    <t>Jalalabad</t>
+  </si>
+  <si>
+    <t>01/20/2021: An explosive device detonated targeting a logistics convoy for the international coalition in Yusufiyah, Babil, Iraq. There were no reported casualties in the blast. Qasem al-Jabbarin of Kata'ib Hezbollah claimed responsibility for the incident.</t>
+  </si>
+  <si>
+    <t>Yusufiyah</t>
+  </si>
+  <si>
+    <t>Point(44.254721 33.07835)</t>
+  </si>
+  <si>
+    <t>Point(70.449594 34.41712)</t>
+  </si>
+  <si>
+    <t>03/21/2021: An explosives-laden vehicle detonated at a square in Saravan, Sistan and Baluchestan, Iran. One person was killed and three people were injured in the blast. Jaish al-Adl claimed responsibility for the incident.</t>
+  </si>
+  <si>
+    <t>Saravan</t>
+  </si>
+  <si>
+    <t>Point(62.330735 27.370868)</t>
+  </si>
+  <si>
+    <t>03/24/2021: Assailants attacked the town of Palma from the Pundanhar-Manguna crossroads in Palma, Cabo Delgado, Mozambique. This was one of eight coordinated attacks in an attempt to take over the town of Palma on March 24 and March 26, 2021. At least 92 people, including at least on Zimbabwean national, were killed and an unknown number of people were injured across the four raids on Palma on March 24. Several victims were beheaded and an unknown number of buildings in the town were damaged during the coordinated assault. The Central Africa Province of the Islamic State claimed responsibility for the incidents. Sources also attributed the attacks to Ansar al-Sunna (Mozambique).</t>
+  </si>
+  <si>
+    <t>Palma</t>
+  </si>
+  <si>
+    <t>Point(40.474546 -10.774372)</t>
+  </si>
+  <si>
+    <t>03/25/2021: Assailants captured the Alaw Bum military base near Laiza, Kachin, Myanmar. It is unknown whether the attack resulted in any casualties. No group claimed responsibility for the incident; however, sources attributed the attack to the Kachin Independence Army (KIA).</t>
+  </si>
+  <si>
+    <t>Laiza</t>
+  </si>
+  <si>
+    <t>Point(97.550451 24.754011)</t>
   </si>
 </sst>
 </file>
@@ -142,12 +283,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,9 +320,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,17 +354,77 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="B8" t="str">
-            <v>f0392fc1-6c38-2fff-8459-2c36ed86b269</v>
+            <v>303fa200-6a60-d74a-5341-2740c9fdfc96</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>f3f659c2-2a04-f564-7732-e68de715c6b7</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>4ec2cb44-94b3-1dbe-f723-2fb7f5555694</v>
+            <v>ac6301ed-92cd-819c-65eb-5dc264f1f70d</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>bcac6bc4-0672-e8ad-a799-b0aa52c32c24</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>e8400e43-b1c6-0c94-161a-c880dfe250e4</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>0294c10c-762d-ea8b-7eaa-2da7f3df4d5c</v>
+            <v>faac5904-ed09-549f-e9e2-227cbb40397f</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>22e8c917-f151-07a6-7b40-9762e774ebe9</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>330a0400-dd77-8c4a-8ac3-59aa59e37d56</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>86f2291f-76a7-bb26-9c78-92a8823a4d5c</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>6179651c-0230-b110-638d-2697b559a82c</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>b0938833-4835-4723-038e-3129e311f5e4</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>15e7adb7-c387-499f-326c-d75248364210</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>ce55d2e5-33ba-dff8-d92b-1c9369b57cc8</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>78c7d71a-bc80-8afe-9499-acc21ebbf054</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>85c242b4-8db5-b2bd-ad31-f899e0d0af41</v>
           </cell>
         </row>
       </sheetData>
@@ -236,19 +444,54 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="F3" t="str">
+            <v>9bab6873-4629-f3f6-8c57-72738c2913b3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>a2e048cc-8b5c-d64e-b047-766200da2588</v>
+          </cell>
+        </row>
         <row r="17">
           <cell r="F17" t="str">
-            <v>f6e0bf9b-64c5-c44f-7c24-c2af66be3b19</v>
+            <v>de236187-990c-85a2-f87d-d5ee404c6f3d</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18" t="str">
+            <v>ebcb3455-843d-3324-52d8-360f2eeace18</v>
           </cell>
         </row>
         <row r="50">
           <cell r="F50" t="str">
-            <v>91740dbe-a970-e5b9-ab36-0fd69f0e84b0</v>
+            <v>8e2c86ff-c85c-4007-0b78-d7fa307fd8c5</v>
           </cell>
         </row>
         <row r="51">
           <cell r="F51" t="str">
-            <v>e4e0a206-02fd-6b61-5417-52b131990d34</v>
+            <v>c8d542b7-ee3b-3c51-19e5-c5dec9528184</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="F52" t="str">
+            <v>746fa921-df6b-a6c0-0c3e-d27c5ae980d2</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="F53" t="str">
+            <v>21109f40-31fd-8e97-51d6-328c81b58466</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="F54" t="str">
+            <v>4b1ecb27-47f5-420f-9343-0d2036719d6e</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="F55" t="str">
+            <v>84324332-9784-1311-6560-51c75816c389</v>
           </cell>
         </row>
       </sheetData>
@@ -554,20 +797,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCFC77A-4166-45A0-9A1B-7C4F0809DB60}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,464 +837,692 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>3fd3a0e6-7698-4f77-d1d4-4ef58e90afc2</v>
+        <f t="shared" ref="A2:A25" ca="1" si="0">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
+        <v>1a7756a1-6623-70a4-67bf-bbeeae3aad14</v>
       </c>
       <c r="B2" s="1">
         <v>40705</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">[1]goi!$B$16</f>
-        <v>4ec2cb44-94b3-1dbe-f723-2fb7f5555694</v>
+        <v>ac6301ed-92cd-819c-65eb-5dc264f1f70d</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="str">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="str">
         <f ca="1">[2]conflicts!$F$50</f>
-        <v>91740dbe-a970-e5b9-ab36-0fd69f0e84b0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8e2c86ff-c85c-4007-0b78-d7fa307fd8c5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>2ee8b89f-988f-098b-c5bc-1c7fb737946e</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9fe93e69-b7e3-6956-7d94-e5154cc0d62a</v>
       </c>
       <c r="B3" s="1">
         <v>44577</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">[1]goi!$B$20</f>
-        <v>0294c10c-762d-ea8b-7eaa-2da7f3df4d5c</v>
+        <v>faac5904-ed09-549f-e9e2-227cbb40397f</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="str">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="str">
         <f ca="1">[2]conflicts!$F$51</f>
-        <v>e4e0a206-02fd-6b61-5417-52b131990d34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>c8d542b7-ee3b-3c51-19e5-c5dec9528184</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>110c7c5e-3b2c-b968-3764-22b1d98c6a9a</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0f41c5fa-8d31-11a2-767e-804a398b4832</v>
       </c>
       <c r="B4" s="1">
         <v>44578</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">D3</f>
-        <v>0294c10c-762d-ea8b-7eaa-2da7f3df4d5c</v>
+        <v>faac5904-ed09-549f-e9e2-227cbb40397f</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="str">
+        <f ca="1">G3</f>
+        <v>c8d542b7-ee3b-3c51-19e5-c5dec9528184</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="str">
-        <f ca="1">H3</f>
-        <v>e4e0a206-02fd-6b61-5417-52b131990d34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>d2d3e1eb-3fdd-4fb5-94d9-cbbb5a313a4d</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>b7bf12aa-acaa-c863-0449-16ae6df8815d</v>
       </c>
       <c r="B5" s="1">
         <v>42267</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">[1]goi!$B$16</f>
-        <v>4ec2cb44-94b3-1dbe-f723-2fb7f5555694</v>
+        <v>ac6301ed-92cd-819c-65eb-5dc264f1f70d</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="str">
+        <f ca="1">[2]conflicts!$F$50</f>
+        <v>8e2c86ff-c85c-4007-0b78-d7fa307fd8c5</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="str">
-        <f ca="1">[2]conflicts!$F$50</f>
-        <v>91740dbe-a970-e5b9-ab36-0fd69f0e84b0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>05320062-d961-39f9-b5f9-12019c55cdac</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>063c888f-2675-4034-2136-b6e6be8e9de5</v>
       </c>
       <c r="B6" s="1">
         <v>44235</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="str">
         <f ca="1">[1]goi!$B$8</f>
-        <v>f0392fc1-6c38-2fff-8459-2c36ed86b269</v>
+        <v>303fa200-6a60-d74a-5341-2740c9fdfc96</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="str">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="str">
         <f ca="1">[2]conflicts!$F$17</f>
-        <v>f6e0bf9b-64c5-c44f-7c24-c2af66be3b19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>de236187-990c-85a2-f87d-d5ee404c6f3d</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>96d54c54-7713-63cc-3df2-e327b7c0b702</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4f800b15-beed-6294-1ace-bd847e686d61</v>
       </c>
       <c r="B7" s="1">
         <v>44194</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="str">
         <f ca="1">[1]goi!$B$8</f>
-        <v>f0392fc1-6c38-2fff-8459-2c36ed86b269</v>
+        <v>303fa200-6a60-d74a-5341-2740c9fdfc96</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="str">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="str">
         <f ca="1">[2]conflicts!$F$17</f>
-        <v>f6e0bf9b-64c5-c44f-7c24-c2af66be3b19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>de236187-990c-85a2-f87d-d5ee404c6f3d</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>98a6f60b-3fe4-6a47-54d1-e76164672efe</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1108d92a-f072-43c2-e95f-034d3ddcc286</v>
       </c>
       <c r="B8" s="1">
         <v>44192</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="str">
         <f ca="1">D7</f>
-        <v>f0392fc1-6c38-2fff-8459-2c36ed86b269</v>
+        <v>303fa200-6a60-d74a-5341-2740c9fdfc96</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="str">
-        <f ca="1">H7</f>
-        <v>f6e0bf9b-64c5-c44f-7c24-c2af66be3b19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="str">
+        <f ca="1">G7</f>
+        <v>de236187-990c-85a2-f87d-d5ee404c6f3d</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>10f22099-8a49-2a7b-1d0a-84c9882df6ae</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>ded537dc-6151-88bf-7080-5f2e5155d25a</v>
       </c>
       <c r="B9" s="1">
         <v>44179</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="str">
         <f ca="1">D8</f>
-        <v>f0392fc1-6c38-2fff-8459-2c36ed86b269</v>
+        <v>303fa200-6a60-d74a-5341-2740c9fdfc96</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="str">
-        <f ca="1">H8</f>
-        <v>f6e0bf9b-64c5-c44f-7c24-c2af66be3b19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="str">
+        <f ca="1">G8</f>
+        <v>de236187-990c-85a2-f87d-d5ee404c6f3d</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>01ab7768-fbc3-c9bd-8fcc-e5b24797ff29</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>e2421509-34a8-fbcb-2d0b-e483b3a170f9</v>
       </c>
       <c r="B10" s="1">
         <v>43480</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="str">
         <f ca="1">D9</f>
-        <v>f0392fc1-6c38-2fff-8459-2c36ed86b269</v>
+        <v>303fa200-6a60-d74a-5341-2740c9fdfc96</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="str">
+        <f ca="1">G9</f>
+        <v>de236187-990c-85a2-f87d-d5ee404c6f3d</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>38502cef-2f20-fec7-a580-dfc14cba98bd</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44287</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="H10" t="str">
-        <f ca="1">H9</f>
-        <v>f6e0bf9b-64c5-c44f-7c24-c2af66be3b19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>e242d1ab-7320-12a1-0703-da6fbd24ca52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f ca="1">[1]goi!$B$21</f>
+        <v>22e8c917-f151-07a6-7b40-9762e774ebe9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="str">
+        <f ca="1">[2]conflicts!$F$3</f>
+        <v>9bab6873-4629-f3f6-8c57-72738c2913b3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>2a2f6703-ff37-2e17-5732-cd36799d7d00</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>bacf62e1-adee-63ca-8932-081d6bf9e6c6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44317</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="str">
+        <f ca="1">[1]goi!$B$17</f>
+        <v>bcac6bc4-0672-e8ad-a799-b0aa52c32c24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="str">
+        <f ca="1">[2]conflicts!$F$5</f>
+        <v>a2e048cc-8b5c-d64e-b047-766200da2588</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>4407c4ec-2e9e-e168-1e6c-20fdac72416d</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>202cda7f-f40c-ca25-0b0c-7166527f611d</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44317</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="str">
+        <f ca="1">[1]goi!$B$19</f>
+        <v>e8400e43-b1c6-0c94-161a-c880dfe250e4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="str">
+        <f ca="1">[2]conflicts!$F$5</f>
+        <v>a2e048cc-8b5c-d64e-b047-766200da2588</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>adc31e2b-e8af-33a0-37a9-bf152bd88620</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>11f3332b-6138-74b5-50db-0407b411fda3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44256</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="str">
+        <f ca="1">[1]goi!$B$23</f>
+        <v>330a0400-dd77-8c4a-8ac3-59aa59e37d56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="str">
+        <f ca="1">[2]conflicts!$F$51</f>
+        <v>c8d542b7-ee3b-3c51-19e5-c5dec9528184</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>4fa4a861-ab12-1cc1-b27a-140967bc7e37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>8ddb3dad-cb25-e3ed-b791-0c1aec5b12a1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44317</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="str">
+        <f ca="1">[1]goi!$B$8</f>
+        <v>303fa200-6a60-d74a-5341-2740c9fdfc96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="str">
+        <f ca="1">[2]conflicts!$F$17</f>
+        <v>de236187-990c-85a2-f87d-d5ee404c6f3d</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>bd028b45-1884-0d00-5c2f-7f10fa4778cc</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>7e3ebbbe-9f23-2260-9235-c586bfdcc0ae</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="str">
+        <f ca="1">[1]goi!$B$24</f>
+        <v>86f2291f-76a7-bb26-9c78-92a8823a4d5c</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="str">
+        <f ca="1">[2]conflicts!$F$52</f>
+        <v>746fa921-df6b-a6c0-0c3e-d27c5ae980d2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>2e732252-4c84-adf5-23b1-e402853637f7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>dd7f555d-0fe8-53d0-2f54-74874a81cce1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="str">
+        <f ca="1">[1]goi!$B$25</f>
+        <v>6179651c-0230-b110-638d-2697b559a82c</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="str">
+        <f ca="1">[2]conflicts!$F$53</f>
+        <v>21109f40-31fd-8e97-51d6-328c81b58466</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>c40f39e1-4551-c39d-42fc-63dfdb8be639</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>999896c9-2e7e-daac-dccc-dab250dc27fb</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44210</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="str">
+        <f ca="1">[1]goi!$B$17</f>
+        <v>bcac6bc4-0672-e8ad-a799-b0aa52c32c24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="str">
+        <f ca="1">[2]conflicts!$F$5</f>
+        <v>a2e048cc-8b5c-d64e-b047-766200da2588</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>6a38f083-babd-9158-f466-e78254e718fc</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>eea15bb8-1757-378a-9028-afdfd6a3f62f</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44531</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="str">
+        <f ca="1">[1]goi!$B$26</f>
+        <v>b0938833-4835-4723-038e-3129e311f5e4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="str">
+        <f ca="1">[2]conflicts!$F$54</f>
+        <v>4b1ecb27-47f5-420f-9343-0d2036719d6e</v>
+      </c>
+      <c r="H19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>adc270e1-8674-f73b-6299-4fb5089e4c04</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>b9e0aa2b-97fe-b514-068f-a6e70a69bdb7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44531</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="str">
+        <f ca="1">[1]goi!$B$27</f>
+        <v>15e7adb7-c387-499f-326c-d75248364210</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>bb2f513b-bd10-39bf-a2e7-1b2a362de46a</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>4c845b5d-2cb6-9ede-9f90-d0bb6277af11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="str">
+        <f ca="1">[1]goi!$B$28</f>
+        <v>ce55d2e5-33ba-dff8-d92b-1c9369b57cc8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" t="str">
+        <f ca="1">[2]conflicts!$F$54</f>
+        <v>4b1ecb27-47f5-420f-9343-0d2036719d6e</v>
+      </c>
+      <c r="H21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>7a6e4614-536e-5ed8-e5c7-6c0e3f1337e7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>e47a6002-0e9d-18fc-8fcd-0723dee1e16c</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44206</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="str">
+        <f ca="1">[1]goi!$B$14</f>
+        <v>f3f659c2-2a04-f564-7732-e68de715c6b7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" t="str">
+        <f ca="1">[2]conflicts!$F$54</f>
+        <v>4b1ecb27-47f5-420f-9343-0d2036719d6e</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>193e5c6b-8db7-076d-3062-7b405293b991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>66276e1f-b1be-6f7d-91d0-cf301a1c2b30</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44276</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="str">
+        <f ca="1">[1]goi!$B$19</f>
+        <v>e8400e43-b1c6-0c94-161a-c880dfe250e4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" t="str">
+        <f ca="1">[2]conflicts!$F$54</f>
+        <v>4b1ecb27-47f5-420f-9343-0d2036719d6e</v>
+      </c>
+      <c r="H23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>869f8017-835e-7abe-811f-b8fa8c435bb3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>08d7c94b-96a0-4117-5b8d-11380775ab97</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44279</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="str">
+        <f ca="1">[1]goi!$B$29</f>
+        <v>78c7d71a-bc80-8afe-9499-acc21ebbf054</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="str">
+        <f ca="1">[2]conflicts!$F$18</f>
+        <v>ebcb3455-843d-3324-52d8-360f2eeace18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>20f602b4-f719-2754-3fe4-6ce66d428e5d</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>f6d5c48c-abcb-603d-d1b9-7e8ad7a1b3ba</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>5362323b-432c-34c4-09d7-b9eecce7ecad</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>348fbe94-0568-4992-7a5e-d59637d9be12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>4925aeee-8ff8-ec6f-4235-f857ec972bb6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>e6fc584f-ced9-d157-ef86-a0d002c82da1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>7e435c3f-4d8f-4f9f-dd0d-8a87adfc49a0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>ac5e04fb-a4a2-7b8e-09d2-93f6f38adeba</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>24f18e19-0448-18ba-3927-7142ff6ff4ba</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>0eac6eb6-c555-883f-062d-8306412c1642</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>cd1e469f-a478-0032-5b4d-697649e06b87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>572b8836-d425-24ab-651c-a504ca95f5f8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>cde4c152-2dc8-8f95-2892-0819c6529001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>dfed08b7-0fc0-5047-7440-b547d7dd7d15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>423a6826-18e4-372d-dfa3-202558306106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>d8862cd1-3de1-6e50-753e-7663f90a87bd</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3dac1eca-d9b0-3e29-895d-a90d1f240369</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44280</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="str">
+        <f ca="1">[1]goi!$B$30</f>
+        <v>85c242b4-8db5-b2bd-ad31-f899e0d0af41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="str">
+        <f ca="1">[2]conflicts!$F$55</f>
+        <v>84324332-9784-1311-6560-51c75816c389</v>
+      </c>
+      <c r="H25" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>